--- a/Übersicht.xlsx
+++ b/Übersicht.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -143,6 +143,9 @@
       </rPr>
       <t>(digitalTwin)</t>
     </r>
+  </si>
+  <si>
+    <t>Schleifmaschine</t>
   </si>
 </sst>
 </file>
@@ -282,14 +285,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,38 +298,44 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -615,7 +621,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -632,58 +638,58 @@
     <col min="11" max="11" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="19" t="s">
         <v>32</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -693,26 +699,26 @@
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="2"/>
@@ -724,26 +730,26 @@
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K4" s="2"/>
@@ -755,26 +761,26 @@
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K5" s="2"/>
@@ -786,26 +792,26 @@
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K6" s="2"/>
@@ -817,26 +823,26 @@
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="2"/>
@@ -848,14 +854,28 @@
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="C8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -865,14 +885,28 @@
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="C9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -909,22 +943,22 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="9" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -935,88 +969,116 @@
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1027,7 +1089,6 @@
     <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="9">
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -1036,6 +1097,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1"/>
@@ -1055,9 +1117,10 @@
     <hyperlink ref="B11" r:id="rId15"/>
     <hyperlink ref="B12" r:id="rId16"/>
     <hyperlink ref="B13" r:id="rId17"/>
+    <hyperlink ref="B18" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/Übersicht.xlsx
+++ b/Übersicht.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="38">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -621,7 +621,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -933,14 +933,28 @@
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="C11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -972,15 +986,27 @@
       <c r="C13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="H13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -993,13 +1019,21 @@
       <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="G14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1012,13 +1046,21 @@
       <c r="C15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="G15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1033,13 +1075,21 @@
       <c r="C16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="G16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1052,13 +1102,21 @@
       <c r="C17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="G17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1079,7 +1137,9 @@
       <c r="G18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>

--- a/Übersicht.xlsx
+++ b/Übersicht.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="45">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -146,6 +146,27 @@
   </si>
   <si>
     <t>Schleifmaschine</t>
+  </si>
+  <si>
+    <t>Blinklicht Fibonacci</t>
+  </si>
+  <si>
+    <t>Parkhaus</t>
+  </si>
+  <si>
+    <t>Paternosterlager</t>
+  </si>
+  <si>
+    <t>Stiegenhausbeleuchtung</t>
+  </si>
+  <si>
+    <t>Synchronisiereinrichtung</t>
+  </si>
+  <si>
+    <t>Voltmeter mit 7-Segmentanzeige</t>
+  </si>
+  <si>
+    <t>WordClock</t>
   </si>
 </sst>
 </file>
@@ -285,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -307,6 +328,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -618,15 +640,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -639,36 +661,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="11" t="s">
         <v>28</v>
       </c>
@@ -687,10 +709,10 @@
       <c r="G2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="17"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1010,7 +1032,7 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1034,12 +1056,16 @@
       <c r="H14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="I14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1066,7 +1092,7 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1090,12 +1116,16 @@
       <c r="H16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1144,8 +1174,141 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
   </sheetData>
-  <sortState ref="A3:A16">
+  <sortState ref="A3:K25">
     <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="9">
